--- a/Tablas del Proyecto 1.xlsx
+++ b/Tablas del Proyecto 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabas\Documents\2020 - Trabajos, Tareas y Documentos USB\ENE - MAR 2020\Laboratorio de Algoritmos II\Labs\Proyecto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabas\Documents\GitHub\Proyecto1_Algos2\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FBB6D6-FCC1-4BA8-8822-B2AE88C126F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713AB089-49B3-4E7E-BCC3-295BE3C29020}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E35210F0-63D7-474B-A86F-AC6B57412786}"/>
+    <workbookView xWindow="7620" yWindow="630" windowWidth="12765" windowHeight="9195" xr2:uid="{E35210F0-63D7-474B-A86F-AC6B57412786}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="138">
   <si>
     <t>N</t>
   </si>
@@ -170,12 +170,378 @@
       <t xml:space="preserve"> CASI ORDENADO 2</t>
     </r>
   </si>
+  <si>
+    <t>0,01s</t>
+  </si>
+  <si>
+    <t>0,03s</t>
+  </si>
+  <si>
+    <t>0,02s</t>
+  </si>
+  <si>
+    <t>0,40s</t>
+  </si>
+  <si>
+    <t>0,06s</t>
+  </si>
+  <si>
+    <t>0,04s</t>
+  </si>
+  <si>
+    <t>1,26s</t>
+  </si>
+  <si>
+    <t>0,05s</t>
+  </si>
+  <si>
+    <t>0,12s</t>
+  </si>
+  <si>
+    <t>0,08s</t>
+  </si>
+  <si>
+    <t>0,07s</t>
+  </si>
+  <si>
+    <t>9,06s</t>
+  </si>
+  <si>
+    <t>0,09s</t>
+  </si>
+  <si>
+    <t>0,10s</t>
+  </si>
+  <si>
+    <t>0,26s</t>
+  </si>
+  <si>
+    <t>0,16s</t>
+  </si>
+  <si>
+    <t>68,50s</t>
+  </si>
+  <si>
+    <t>0,15s</t>
+  </si>
+  <si>
+    <t>0,13s</t>
+  </si>
+  <si>
+    <t>0,18s</t>
+  </si>
+  <si>
+    <t>0,21s</t>
+  </si>
+  <si>
+    <t>0,55s</t>
+  </si>
+  <si>
+    <t>0,39s</t>
+  </si>
+  <si>
+    <t>0,37s</t>
+  </si>
+  <si>
+    <t>84,87s</t>
+  </si>
+  <si>
+    <t>0,34s</t>
+  </si>
+  <si>
+    <t>0,29s</t>
+  </si>
+  <si>
+    <t>2,45s</t>
+  </si>
+  <si>
+    <t>0,00s</t>
+  </si>
+  <si>
+    <t>0,20s</t>
+  </si>
+  <si>
+    <t>0,96s</t>
+  </si>
+  <si>
+    <t>9,95s</t>
+  </si>
+  <si>
+    <t>0,56s</t>
+  </si>
+  <si>
+    <t>3,97s</t>
+  </si>
+  <si>
+    <t>0,11s</t>
+  </si>
+  <si>
+    <t>49,89s</t>
+  </si>
+  <si>
+    <t>3,19s</t>
+  </si>
+  <si>
+    <t>20,77s</t>
+  </si>
+  <si>
+    <t>0,33s</t>
+  </si>
+  <si>
+    <t>194,35s</t>
+  </si>
+  <si>
+    <t>8,42s</t>
+  </si>
+  <si>
+    <t>79,41s</t>
+  </si>
+  <si>
+    <t>0,51s</t>
+  </si>
+  <si>
+    <t>736,19s</t>
+  </si>
+  <si>
+    <t>26,56s</t>
+  </si>
+  <si>
+    <t>279,01s</t>
+  </si>
+  <si>
+    <t>0,32s</t>
+  </si>
+  <si>
+    <t>1,04s</t>
+  </si>
+  <si>
+    <t>0,54s</t>
+  </si>
+  <si>
+    <t>4,73s</t>
+  </si>
+  <si>
+    <t>2,43s</t>
+  </si>
+  <si>
+    <t>3,77s</t>
+  </si>
+  <si>
+    <t>18,88s</t>
+  </si>
+  <si>
+    <t>10,81s</t>
+  </si>
+  <si>
+    <t>13,03s</t>
+  </si>
+  <si>
+    <t>0,17s</t>
+  </si>
+  <si>
+    <t>77,38s</t>
+  </si>
+  <si>
+    <t>38,01s</t>
+  </si>
+  <si>
+    <t>50,04s</t>
+  </si>
+  <si>
+    <t>0,2s</t>
+  </si>
+  <si>
+    <t>0,31s</t>
+  </si>
+  <si>
+    <t>0,41s</t>
+  </si>
+  <si>
+    <t>277,91s</t>
+  </si>
+  <si>
+    <t>0,77s</t>
+  </si>
+  <si>
+    <t>144,83s</t>
+  </si>
+  <si>
+    <t>187,37s</t>
+  </si>
+  <si>
+    <t>0,43s</t>
+  </si>
+  <si>
+    <t>1,10s</t>
+  </si>
+  <si>
+    <t>4,33s</t>
+  </si>
+  <si>
+    <t>17,62s</t>
+  </si>
+  <si>
+    <t>72,78s</t>
+  </si>
+  <si>
+    <t>0,14s</t>
+  </si>
+  <si>
+    <t>295,98s</t>
+  </si>
+  <si>
+    <t>0,22s</t>
+  </si>
+  <si>
+    <t>0,23s</t>
+  </si>
+  <si>
+    <t>0,28s</t>
+  </si>
+  <si>
+    <t>1,46s</t>
+  </si>
+  <si>
+    <t>0,38s</t>
+  </si>
+  <si>
+    <t>5,70s</t>
+  </si>
+  <si>
+    <t>1,51s</t>
+  </si>
+  <si>
+    <t>24,89s</t>
+  </si>
+  <si>
+    <t>6,24s</t>
+  </si>
+  <si>
+    <t>100,62s</t>
+  </si>
+  <si>
+    <t>24,81s</t>
+  </si>
+  <si>
+    <t>0,58s</t>
+  </si>
+  <si>
+    <t>0,27s</t>
+  </si>
+  <si>
+    <t>288,97s</t>
+  </si>
+  <si>
+    <t>98,90s</t>
+  </si>
+  <si>
+    <t>0,68s</t>
+  </si>
+  <si>
+    <t>1,22s</t>
+  </si>
+  <si>
+    <t>0,59s</t>
+  </si>
+  <si>
+    <t>0,69s</t>
+  </si>
+  <si>
+    <t>2,14s</t>
+  </si>
+  <si>
+    <t>0,49s</t>
+  </si>
+  <si>
+    <t>0,61s</t>
+  </si>
+  <si>
+    <t>8,83s</t>
+  </si>
+  <si>
+    <t>2,01s</t>
+  </si>
+  <si>
+    <t>2,53s</t>
+  </si>
+  <si>
+    <t>37,16s</t>
+  </si>
+  <si>
+    <t>8,33s</t>
+  </si>
+  <si>
+    <t>10,43s</t>
+  </si>
+  <si>
+    <t>0,19s</t>
+  </si>
+  <si>
+    <t>156,46s</t>
+  </si>
+  <si>
+    <t>34,65s</t>
+  </si>
+  <si>
+    <t>41,97s</t>
+  </si>
+  <si>
+    <t>0,44s</t>
+  </si>
+  <si>
+    <t>646,63s</t>
+  </si>
+  <si>
+    <t>148,77s</t>
+  </si>
+  <si>
+    <t>185,83s</t>
+  </si>
+  <si>
+    <t>1,18s</t>
+  </si>
+  <si>
+    <t>0,36s</t>
+  </si>
+  <si>
+    <t>4,78s</t>
+  </si>
+  <si>
+    <t>1,30s</t>
+  </si>
+  <si>
+    <t>19,88s</t>
+  </si>
+  <si>
+    <t>5,79s</t>
+  </si>
+  <si>
+    <t>6,18s</t>
+  </si>
+  <si>
+    <t>82,25s</t>
+  </si>
+  <si>
+    <t>21,66s</t>
+  </si>
+  <si>
+    <t>0,45s</t>
+  </si>
+  <si>
+    <t>358,22s</t>
+  </si>
+  <si>
+    <t>96,57s</t>
+  </si>
+  <si>
+    <t>117,37s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +553,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,15 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,6 +880,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -834,767 +1216,1327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B6C03D-1AB5-474A-92D4-DD82D34547F7}">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>4096</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>8192</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>16384</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>32768</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>65536</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>4096</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>8192</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>16384</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>32768</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>65536</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>4096</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>8192</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>16384</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>32768</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>65536</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>4096</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>8192</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>16384</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>32768</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
+      <c r="B32" s="11">
         <v>65536</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
+      <c r="C32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
+      <c r="B36" s="12">
         <v>4096</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>8192</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>16384</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>32768</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>65536</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
+      <c r="C40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="B44" s="12">
         <v>4096</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="C44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="13">
+      <c r="B45" s="10">
         <v>8192</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
+      <c r="C45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+      <c r="B46" s="10">
         <v>16384</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
+      <c r="C46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="13">
+      <c r="B47" s="10">
         <v>32768</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
+      <c r="C47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>65536</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
+      <c r="C48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="15">
+      <c r="B52" s="12">
         <v>4096</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="6"/>
+      <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="13">
+      <c r="B53" s="10">
         <v>8192</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="2"/>
+      <c r="C53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+      <c r="B54" s="10">
         <v>16384</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2"/>
+      <c r="C54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="13">
+      <c r="B55" s="10">
         <v>32768</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2"/>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="14">
+      <c r="B56" s="11">
         <v>65536</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
+      <c r="C56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
